--- a/multiplepartylr.xlsx
+++ b/multiplepartylr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -43,58 +43,40 @@
     <t>Closing KM</t>
   </si>
   <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Lnnnnnnnnnnn</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Knnnn</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>2021-02-25</t>
-  </si>
-  <si>
-    <t>SARTHK</t>
-  </si>
-  <si>
-    <t>ADFASnnnn</t>
-  </si>
-  <si>
-    <t>sijafs</t>
-  </si>
-  <si>
-    <t>2021-02-24</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP ENTERPRISE </t>
+  </si>
+  <si>
+    <t>SILIGURI</t>
+  </si>
+  <si>
+    <t>5994,5993,5956</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAA SHIPRA </t>
+  </si>
+  <si>
+    <t>SHIVMANDIR</t>
+  </si>
+  <si>
+    <t>6000,6053</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
+    <t xml:space="preserve">DAS MARKETING </t>
+  </si>
+  <si>
+    <t>6041,</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
   </si>
 </sst>
 </file>
@@ -475,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -523,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1122</v>
+        <v>7252</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -538,16 +520,16 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>28037</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>28110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -555,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>178</v>
+        <v>7252</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -569,17 +551,11 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
-        <v>121</v>
-      </c>
-      <c r="H3">
-        <v>122</v>
-      </c>
       <c r="I3">
-        <v>111</v>
+        <v>28037</v>
       </c>
       <c r="J3">
-        <v>121</v>
+        <v>28110</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -587,95 +563,57 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>178</v>
+        <v>7252</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>111</v>
-      </c>
-      <c r="H4">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>111</v>
+        <v>28037</v>
       </c>
       <c r="J4">
-        <v>121</v>
+        <v>28110</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B5">
+        <v>7251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>28009</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>28037</v>
       </c>
     </row>
   </sheetData>
